--- a/phpexcel_test/demo_555.xlsx
+++ b/phpexcel_test/demo_555.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>團隊報表</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>合計</t>
+  </si>
+  <si>
+    <t>holoEn</t>
+  </si>
+  <si>
+    <t>Gura</t>
+  </si>
+  <si>
+    <t>Irys</t>
+  </si>
+  <si>
+    <t>Ame</t>
+  </si>
+  <si>
+    <t>Gigi</t>
   </si>
 </sst>
 </file>
@@ -371,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,9 +458,105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A1:S2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/phpexcel_test/demo_555.xlsx
+++ b/phpexcel_test/demo_555.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>團隊報表</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Gura</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>2EN</t>
+  </si>
+  <si>
+    <t>Ina</t>
   </si>
   <si>
     <t>Irys</t>
@@ -468,11 +477,20 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1"/>
@@ -487,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -508,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -529,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19">

--- a/phpexcel_test/demo_555.xlsx
+++ b/phpexcel_test/demo_555.xlsx
@@ -477,25 +477,28 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
+      <c r="M4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
       <c r="M5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">

--- a/phpexcel_test/demo_555.xlsx
+++ b/phpexcel_test/demo_555.xlsx
@@ -38,10 +38,10 @@
     <t>Gura</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>2EN</t>
+    <t>支援JP</t>
+  </si>
+  <si>
+    <t>支援EN</t>
   </si>
   <si>
     <t>Ina</t>
